--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7701,6 +7701,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>44958.45833333334</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ECONOMICS:OMM2</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>20665600000</v>
+      </c>
+      <c r="D291" t="n">
+        <v>20665600000</v>
+      </c>
+      <c r="E291" t="n">
+        <v>20665600000</v>
+      </c>
+      <c r="F291" t="n">
+        <v>20665600000</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>ECONOMICS:OMM2</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>21052600000</v>
+      </c>
+      <c r="D292" t="n">
+        <v>21052600000</v>
+      </c>
+      <c r="E292" t="n">
+        <v>21052600000</v>
+      </c>
+      <c r="F292" t="n">
+        <v>21052600000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ECONOMICS:OMM2</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>21069600000</v>
+      </c>
+      <c r="D293" t="n">
+        <v>21069600000</v>
+      </c>
+      <c r="E293" t="n">
+        <v>21069600000</v>
+      </c>
+      <c r="F293" t="n">
+        <v>21069600000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -7773,6 +7773,31 @@
         <v>21069600000</v>
       </c>
       <c r="G293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ECONOMICS:OMM2</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>21287500000</v>
+      </c>
+      <c r="D294" t="n">
+        <v>21287500000</v>
+      </c>
+      <c r="E294" t="n">
+        <v>21287500000</v>
+      </c>
+      <c r="F294" t="n">
+        <v>21287500000</v>
+      </c>
+      <c r="G294" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -7798,6 +7798,31 @@
         <v>21287500000</v>
       </c>
       <c r="G294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ECONOMICS:OMM2</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>21479000000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>21479000000</v>
+      </c>
+      <c r="E295" t="n">
+        <v>21479000000</v>
+      </c>
+      <c r="F295" t="n">
+        <v>21479000000</v>
+      </c>
+      <c r="G295" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Oman_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7811,18 +7811,68 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>21479000000</v>
+        <v>21350100000</v>
       </c>
       <c r="D295" t="n">
-        <v>21479000000</v>
+        <v>21350100000</v>
       </c>
       <c r="E295" t="n">
-        <v>21479000000</v>
+        <v>21350100000</v>
       </c>
       <c r="F295" t="n">
-        <v>21479000000</v>
+        <v>21350100000</v>
       </c>
       <c r="G295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ECONOMICS:OMM2</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>21362600000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>21362600000</v>
+      </c>
+      <c r="E296" t="n">
+        <v>21362600000</v>
+      </c>
+      <c r="F296" t="n">
+        <v>21362600000</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>ECONOMICS:OMM2</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>21674500000</v>
+      </c>
+      <c r="D297" t="n">
+        <v>21674500000</v>
+      </c>
+      <c r="E297" t="n">
+        <v>21674500000</v>
+      </c>
+      <c r="F297" t="n">
+        <v>21674500000</v>
+      </c>
+      <c r="G297" t="n">
         <v>0</v>
       </c>
     </row>
